--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.7902327906635</v>
+        <v>73.450124</v>
       </c>
       <c r="H2">
-        <v>71.7902327906635</v>
+        <v>220.350372</v>
       </c>
       <c r="I2">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774678</v>
       </c>
       <c r="J2">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774677</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.24107379972261</v>
+        <v>3.346352666666667</v>
       </c>
       <c r="N2">
-        <v>3.24107379972261</v>
+        <v>10.039058</v>
       </c>
       <c r="O2">
-        <v>0.3354953316012316</v>
+        <v>0.3139821979784092</v>
       </c>
       <c r="P2">
-        <v>0.3354953316012316</v>
+        <v>0.3139821979784092</v>
       </c>
       <c r="Q2">
-        <v>232.6774425738064</v>
+        <v>245.7900183143973</v>
       </c>
       <c r="R2">
-        <v>232.6774425738064</v>
+        <v>2212.110164829576</v>
       </c>
       <c r="S2">
-        <v>0.3080855119818235</v>
+        <v>0.2869615352153312</v>
       </c>
       <c r="T2">
-        <v>0.3080855119818235</v>
+        <v>0.2869615352153312</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.7902327906635</v>
+        <v>73.450124</v>
       </c>
       <c r="H3">
-        <v>71.7902327906635</v>
+        <v>220.350372</v>
       </c>
       <c r="I3">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774678</v>
       </c>
       <c r="J3">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774677</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.29926210684989</v>
+        <v>4.307455999999999</v>
       </c>
       <c r="N3">
-        <v>4.29926210684989</v>
+        <v>12.922368</v>
       </c>
       <c r="O3">
-        <v>0.4450322502072187</v>
+        <v>0.4041607795996257</v>
       </c>
       <c r="P3">
-        <v>0.4450322502072187</v>
+        <v>0.4041607795996257</v>
       </c>
       <c r="Q3">
-        <v>308.645027478832</v>
+        <v>316.383177324544</v>
       </c>
       <c r="R3">
-        <v>308.645027478832</v>
+        <v>2847.448595920896</v>
       </c>
       <c r="S3">
-        <v>0.4086733129761696</v>
+        <v>0.3693795334081613</v>
       </c>
       <c r="T3">
-        <v>0.4086733129761696</v>
+        <v>0.3693795334081613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.7902327906635</v>
+        <v>73.450124</v>
       </c>
       <c r="H4">
-        <v>71.7902327906635</v>
+        <v>220.350372</v>
       </c>
       <c r="I4">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774678</v>
       </c>
       <c r="J4">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774677</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.05663645479643</v>
+        <v>1.05776</v>
       </c>
       <c r="N4">
-        <v>1.05663645479643</v>
+        <v>3.17328</v>
       </c>
       <c r="O4">
-        <v>0.1093762807296205</v>
+        <v>0.09924770124855603</v>
       </c>
       <c r="P4">
-        <v>0.1093762807296205</v>
+        <v>0.09924770124855603</v>
       </c>
       <c r="Q4">
-        <v>75.8561770649371</v>
+        <v>77.69260316224</v>
       </c>
       <c r="R4">
-        <v>75.8561770649371</v>
+        <v>699.23342846016</v>
       </c>
       <c r="S4">
-        <v>0.1004402871611495</v>
+        <v>0.09070664802097032</v>
       </c>
       <c r="T4">
-        <v>0.1004402871611495</v>
+        <v>0.09070664802097032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.7902327906635</v>
+        <v>73.450124</v>
       </c>
       <c r="H5">
-        <v>71.7902327906635</v>
+        <v>220.350372</v>
       </c>
       <c r="I5">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774678</v>
       </c>
       <c r="J5">
-        <v>0.9183004440372143</v>
+        <v>0.9139420548774677</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.06359067613687</v>
+        <v>0.8235003333333334</v>
       </c>
       <c r="N5">
-        <v>1.06359067613687</v>
+        <v>2.470501</v>
       </c>
       <c r="O5">
-        <v>0.1100961374619291</v>
+        <v>0.07726754184385208</v>
       </c>
       <c r="P5">
-        <v>0.1100961374619291</v>
+        <v>0.07726754184385208</v>
       </c>
       <c r="Q5">
-        <v>76.35542223384509</v>
+        <v>60.48620159737467</v>
       </c>
       <c r="R5">
-        <v>76.35542223384509</v>
+        <v>544.375814376372</v>
       </c>
       <c r="S5">
-        <v>0.1011013319180717</v>
+        <v>0.0706180559681009</v>
       </c>
       <c r="T5">
-        <v>0.1011013319180717</v>
+        <v>0.07061805596810089</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.143891586566554</v>
+        <v>73.450124</v>
       </c>
       <c r="H6">
-        <v>0.143891586566554</v>
+        <v>220.350372</v>
       </c>
       <c r="I6">
-        <v>0.00184058057344077</v>
+        <v>0.9139420548774678</v>
       </c>
       <c r="J6">
-        <v>0.00184058057344077</v>
+        <v>0.9139420548774677</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.24107379972261</v>
+        <v>1.122709333333333</v>
       </c>
       <c r="N6">
-        <v>3.24107379972261</v>
+        <v>3.368128</v>
       </c>
       <c r="O6">
-        <v>0.3354953316012316</v>
+        <v>0.105341779329557</v>
       </c>
       <c r="P6">
-        <v>0.3354953316012316</v>
+        <v>0.105341779329557</v>
       </c>
       <c r="Q6">
-        <v>0.466363251221376</v>
+        <v>82.46313974929068</v>
       </c>
       <c r="R6">
-        <v>0.466363251221376</v>
+        <v>742.168257743616</v>
       </c>
       <c r="S6">
-        <v>0.0006175061898252963</v>
+        <v>0.09627628226490405</v>
       </c>
       <c r="T6">
-        <v>0.0006175061898252963</v>
+        <v>0.09627628226490405</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.143891586566554</v>
+        <v>0.1722003333333334</v>
       </c>
       <c r="H7">
-        <v>0.143891586566554</v>
+        <v>0.5166010000000001</v>
       </c>
       <c r="I7">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="J7">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.29926210684989</v>
+        <v>3.346352666666667</v>
       </c>
       <c r="N7">
-        <v>4.29926210684989</v>
+        <v>10.039058</v>
       </c>
       <c r="O7">
-        <v>0.4450322502072187</v>
+        <v>0.3139821979784092</v>
       </c>
       <c r="P7">
-        <v>0.4450322502072187</v>
+        <v>0.3139821979784092</v>
       </c>
       <c r="Q7">
-        <v>0.6186276456200963</v>
+        <v>0.576243044650889</v>
       </c>
       <c r="R7">
-        <v>0.6186276456200963</v>
+        <v>5.186187401858001</v>
       </c>
       <c r="S7">
-        <v>0.0008191177142860389</v>
+        <v>0.0006727677140194498</v>
       </c>
       <c r="T7">
-        <v>0.0008191177142860389</v>
+        <v>0.0006727677140194497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.143891586566554</v>
+        <v>0.1722003333333334</v>
       </c>
       <c r="H8">
-        <v>0.143891586566554</v>
+        <v>0.5166010000000001</v>
       </c>
       <c r="I8">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="J8">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.05663645479643</v>
+        <v>4.307455999999999</v>
       </c>
       <c r="N8">
-        <v>1.05663645479643</v>
+        <v>12.922368</v>
       </c>
       <c r="O8">
-        <v>0.1093762807296205</v>
+        <v>0.4041607795996257</v>
       </c>
       <c r="P8">
-        <v>0.1093762807296205</v>
+        <v>0.4041607795996257</v>
       </c>
       <c r="Q8">
-        <v>0.1520410959047172</v>
+        <v>0.7417453590186667</v>
       </c>
       <c r="R8">
-        <v>0.1520410959047172</v>
+        <v>6.675708231168</v>
       </c>
       <c r="S8">
-        <v>0.0002013158575061436</v>
+        <v>0.0008659928032170039</v>
       </c>
       <c r="T8">
-        <v>0.0002013158575061436</v>
+        <v>0.0008659928032170036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.143891586566554</v>
+        <v>0.1722003333333334</v>
       </c>
       <c r="H9">
-        <v>0.143891586566554</v>
+        <v>0.5166010000000001</v>
       </c>
       <c r="I9">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="J9">
-        <v>0.00184058057344077</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.06359067613687</v>
+        <v>1.05776</v>
       </c>
       <c r="N9">
-        <v>1.06359067613687</v>
+        <v>3.17328</v>
       </c>
       <c r="O9">
-        <v>0.1100961374619291</v>
+        <v>0.09924770124855603</v>
       </c>
       <c r="P9">
-        <v>0.1100961374619291</v>
+        <v>0.09924770124855603</v>
       </c>
       <c r="Q9">
-        <v>0.1530417498467281</v>
+        <v>0.1821466245866667</v>
       </c>
       <c r="R9">
-        <v>0.1530417498467281</v>
+        <v>1.63931962128</v>
       </c>
       <c r="S9">
-        <v>0.0002026408118232914</v>
+        <v>0.0002126574357418435</v>
       </c>
       <c r="T9">
-        <v>0.0002026408118232914</v>
+        <v>0.0002126574357418434</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.38600218209824</v>
+        <v>0.1722003333333334</v>
       </c>
       <c r="H10">
-        <v>3.38600218209824</v>
+        <v>0.5166010000000001</v>
       </c>
       <c r="I10">
-        <v>0.04331184321965553</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="J10">
-        <v>0.04331184321965553</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.24107379972261</v>
+        <v>0.8235003333333334</v>
       </c>
       <c r="N10">
-        <v>3.24107379972261</v>
+        <v>2.470501</v>
       </c>
       <c r="O10">
-        <v>0.3354953316012316</v>
+        <v>0.07726754184385208</v>
       </c>
       <c r="P10">
-        <v>0.3354953316012316</v>
+        <v>0.07726754184385208</v>
       </c>
       <c r="Q10">
-        <v>10.97428295820219</v>
+        <v>0.1418070319001112</v>
       </c>
       <c r="R10">
-        <v>10.97428295820219</v>
+        <v>1.276263287101</v>
       </c>
       <c r="S10">
-        <v>0.01453092120323889</v>
+        <v>0.000165560684105298</v>
       </c>
       <c r="T10">
-        <v>0.01453092120323889</v>
+        <v>0.000165560684105298</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.38600218209824</v>
+        <v>0.1722003333333334</v>
       </c>
       <c r="H11">
-        <v>3.38600218209824</v>
+        <v>0.5166010000000001</v>
       </c>
       <c r="I11">
-        <v>0.04331184321965553</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="J11">
-        <v>0.04331184321965553</v>
+        <v>0.002142693816245315</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.29926210684989</v>
+        <v>1.122709333333333</v>
       </c>
       <c r="N11">
-        <v>4.29926210684989</v>
+        <v>3.368128</v>
       </c>
       <c r="O11">
-        <v>0.4450322502072187</v>
+        <v>0.105341779329557</v>
       </c>
       <c r="P11">
-        <v>0.4450322502072187</v>
+        <v>0.105341779329557</v>
       </c>
       <c r="Q11">
-        <v>14.557310875206</v>
+        <v>0.1933309214364445</v>
       </c>
       <c r="R11">
-        <v>14.557310875206</v>
+        <v>1.739978292928</v>
       </c>
       <c r="S11">
-        <v>0.01927516704866557</v>
+        <v>0.0002257151791617203</v>
       </c>
       <c r="T11">
-        <v>0.01927516704866557</v>
+        <v>0.0002257151791617202</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.38600218209824</v>
+        <v>3.623825</v>
       </c>
       <c r="H12">
-        <v>3.38600218209824</v>
+        <v>10.871475</v>
       </c>
       <c r="I12">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="J12">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.05663645479643</v>
+        <v>3.346352666666667</v>
       </c>
       <c r="N12">
-        <v>1.05663645479643</v>
+        <v>10.039058</v>
       </c>
       <c r="O12">
-        <v>0.1093762807296205</v>
+        <v>0.3139821979784092</v>
       </c>
       <c r="P12">
-        <v>0.1093762807296205</v>
+        <v>0.3139821979784092</v>
       </c>
       <c r="Q12">
-        <v>3.57777334162526</v>
+        <v>12.12659645228333</v>
       </c>
       <c r="R12">
-        <v>3.57777334162526</v>
+        <v>109.13936807055</v>
       </c>
       <c r="S12">
-        <v>0.004737288322910354</v>
+        <v>0.01415788468038118</v>
       </c>
       <c r="T12">
-        <v>0.004737288322910354</v>
+        <v>0.01415788468038118</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.38600218209824</v>
+        <v>3.623825</v>
       </c>
       <c r="H13">
-        <v>3.38600218209824</v>
+        <v>10.871475</v>
       </c>
       <c r="I13">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="J13">
-        <v>0.04331184321965553</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.06359067613687</v>
+        <v>4.307455999999999</v>
       </c>
       <c r="N13">
-        <v>1.06359067613687</v>
+        <v>12.922368</v>
       </c>
       <c r="O13">
-        <v>0.1100961374619291</v>
+        <v>0.4041607795996257</v>
       </c>
       <c r="P13">
-        <v>0.1100961374619291</v>
+        <v>0.4041607795996257</v>
       </c>
       <c r="Q13">
-        <v>3.601320350258784</v>
+        <v>15.6094667392</v>
       </c>
       <c r="R13">
-        <v>3.601320350258784</v>
+        <v>140.4852006528</v>
       </c>
       <c r="S13">
-        <v>0.004768466644840717</v>
+        <v>0.01822415967130063</v>
       </c>
       <c r="T13">
-        <v>0.004768466644840717</v>
+        <v>0.01822415967130063</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.67631076639199</v>
+        <v>3.623825</v>
       </c>
       <c r="H14">
-        <v>2.67631076639199</v>
+        <v>10.871475</v>
       </c>
       <c r="I14">
-        <v>0.03423386816874853</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="J14">
-        <v>0.03423386816874853</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.24107379972261</v>
+        <v>1.05776</v>
       </c>
       <c r="N14">
-        <v>3.24107379972261</v>
+        <v>3.17328</v>
       </c>
       <c r="O14">
-        <v>0.3354953316012316</v>
+        <v>0.09924770124855603</v>
       </c>
       <c r="P14">
-        <v>0.3354953316012316</v>
+        <v>0.09924770124855603</v>
       </c>
       <c r="Q14">
-        <v>8.674120704868617</v>
+        <v>3.833137132</v>
       </c>
       <c r="R14">
-        <v>8.674120704868617</v>
+        <v>34.498234188</v>
       </c>
       <c r="S14">
-        <v>0.01148530295326714</v>
+        <v>0.004475213939252067</v>
       </c>
       <c r="T14">
-        <v>0.01148530295326714</v>
+        <v>0.004475213939252067</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.67631076639199</v>
+        <v>3.623825</v>
       </c>
       <c r="H15">
-        <v>2.67631076639199</v>
+        <v>10.871475</v>
       </c>
       <c r="I15">
-        <v>0.03423386816874853</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="J15">
-        <v>0.03423386816874853</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>4.29926210684989</v>
+        <v>0.8235003333333334</v>
       </c>
       <c r="N15">
-        <v>4.29926210684989</v>
+        <v>2.470501</v>
       </c>
       <c r="O15">
-        <v>0.4450322502072187</v>
+        <v>0.07726754184385208</v>
       </c>
       <c r="P15">
-        <v>0.4450322502072187</v>
+        <v>0.07726754184385208</v>
       </c>
       <c r="Q15">
-        <v>11.50616146410347</v>
+        <v>2.984221095441667</v>
       </c>
       <c r="R15">
-        <v>11.50616146410347</v>
+        <v>26.857989858975</v>
       </c>
       <c r="S15">
-        <v>0.01523517538443543</v>
+        <v>0.003484098633633392</v>
       </c>
       <c r="T15">
-        <v>0.01523517538443543</v>
+        <v>0.003484098633633392</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.67631076639199</v>
+        <v>3.623825</v>
       </c>
       <c r="H16">
-        <v>2.67631076639199</v>
+        <v>10.871475</v>
       </c>
       <c r="I16">
-        <v>0.03423386816874853</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="J16">
-        <v>0.03423386816874853</v>
+        <v>0.04509136113938133</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.05663645479643</v>
+        <v>1.122709333333333</v>
       </c>
       <c r="N16">
-        <v>1.05663645479643</v>
+        <v>3.368128</v>
       </c>
       <c r="O16">
-        <v>0.1093762807296205</v>
+        <v>0.105341779329557</v>
       </c>
       <c r="P16">
-        <v>0.1093762807296205</v>
+        <v>0.105341779329557</v>
       </c>
       <c r="Q16">
-        <v>2.827887520133949</v>
+        <v>4.068502149866667</v>
       </c>
       <c r="R16">
-        <v>2.827887520133949</v>
+        <v>36.6165193488</v>
       </c>
       <c r="S16">
-        <v>0.003744373175285859</v>
+        <v>0.004750004214814068</v>
       </c>
       <c r="T16">
-        <v>0.003744373175285859</v>
+        <v>0.004750004214814068</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.67631076639199</v>
+        <v>2.871251333333333</v>
       </c>
       <c r="H17">
-        <v>2.67631076639199</v>
+        <v>8.613754</v>
       </c>
       <c r="I17">
-        <v>0.03423386816874853</v>
+        <v>0.03572706485364594</v>
       </c>
       <c r="J17">
-        <v>0.03423386816874853</v>
+        <v>0.03572706485364593</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.06359067613687</v>
+        <v>3.346352666666667</v>
       </c>
       <c r="N17">
-        <v>1.06359067613687</v>
+        <v>10.039058</v>
       </c>
       <c r="O17">
-        <v>0.1100961374619291</v>
+        <v>0.3139821979784092</v>
       </c>
       <c r="P17">
-        <v>0.1100961374619291</v>
+        <v>0.3139821979784092</v>
       </c>
       <c r="Q17">
-        <v>2.846499177579242</v>
+        <v>9.608219555970223</v>
       </c>
       <c r="R17">
-        <v>2.846499177579242</v>
+        <v>86.47397600373201</v>
       </c>
       <c r="S17">
-        <v>0.003769016655760098</v>
+        <v>0.01121766235006492</v>
       </c>
       <c r="T17">
-        <v>0.003769016655760098</v>
+        <v>0.01121766235006492</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.180844692183412</v>
+        <v>2.871251333333333</v>
       </c>
       <c r="H18">
-        <v>0.180844692183412</v>
+        <v>8.613754</v>
       </c>
       <c r="I18">
-        <v>0.002313264000940785</v>
+        <v>0.03572706485364594</v>
       </c>
       <c r="J18">
-        <v>0.002313264000940785</v>
+        <v>0.03572706485364593</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.24107379972261</v>
+        <v>4.307455999999999</v>
       </c>
       <c r="N18">
-        <v>3.24107379972261</v>
+        <v>12.922368</v>
       </c>
       <c r="O18">
-        <v>0.3354953316012316</v>
+        <v>0.4041607795996257</v>
       </c>
       <c r="P18">
-        <v>0.3354953316012316</v>
+        <v>0.4041607795996257</v>
       </c>
       <c r="Q18">
-        <v>0.5861309936545569</v>
+        <v>12.36778878327467</v>
       </c>
       <c r="R18">
-        <v>0.5861309936545569</v>
+        <v>111.310099049472</v>
       </c>
       <c r="S18">
-        <v>0.0007760892730768206</v>
+        <v>0.01443947838405593</v>
       </c>
       <c r="T18">
-        <v>0.0007760892730768206</v>
+        <v>0.01443947838405593</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.180844692183412</v>
+        <v>2.871251333333333</v>
       </c>
       <c r="H19">
-        <v>0.180844692183412</v>
+        <v>8.613754</v>
       </c>
       <c r="I19">
-        <v>0.002313264000940785</v>
+        <v>0.03572706485364594</v>
       </c>
       <c r="J19">
-        <v>0.002313264000940785</v>
+        <v>0.03572706485364593</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.29926210684989</v>
+        <v>1.05776</v>
       </c>
       <c r="N19">
-        <v>4.29926210684989</v>
+        <v>3.17328</v>
       </c>
       <c r="O19">
-        <v>0.4450322502072187</v>
+        <v>0.09924770124855603</v>
       </c>
       <c r="P19">
-        <v>0.4450322502072187</v>
+        <v>0.09924770124855603</v>
       </c>
       <c r="Q19">
-        <v>0.7774987323290758</v>
+        <v>3.037094810346667</v>
       </c>
       <c r="R19">
-        <v>0.7774987323290758</v>
+        <v>27.33385329312</v>
       </c>
       <c r="S19">
-        <v>0.001029477083662032</v>
+        <v>0.003545829059082439</v>
       </c>
       <c r="T19">
-        <v>0.001029477083662032</v>
+        <v>0.003545829059082438</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.180844692183412</v>
+        <v>2.871251333333333</v>
       </c>
       <c r="H20">
-        <v>0.180844692183412</v>
+        <v>8.613754</v>
       </c>
       <c r="I20">
-        <v>0.002313264000940785</v>
+        <v>0.03572706485364594</v>
       </c>
       <c r="J20">
-        <v>0.002313264000940785</v>
+        <v>0.03572706485364593</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>1.05663645479643</v>
+        <v>0.8235003333333334</v>
       </c>
       <c r="N20">
-        <v>1.05663645479643</v>
+        <v>2.470501</v>
       </c>
       <c r="O20">
-        <v>0.1093762807296205</v>
+        <v>0.07726754184385208</v>
       </c>
       <c r="P20">
-        <v>0.1093762807296205</v>
+        <v>0.07726754184385208</v>
       </c>
       <c r="Q20">
-        <v>0.1910870944174321</v>
+        <v>2.364476430083778</v>
       </c>
       <c r="R20">
-        <v>0.1910870944174321</v>
+        <v>21.280287870754</v>
       </c>
       <c r="S20">
-        <v>0.0002530162127686245</v>
+        <v>0.002760542478537105</v>
       </c>
       <c r="T20">
-        <v>0.0002530162127686245</v>
+        <v>0.002760542478537104</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.180844692183412</v>
+        <v>2.871251333333333</v>
       </c>
       <c r="H21">
-        <v>0.180844692183412</v>
+        <v>8.613754</v>
       </c>
       <c r="I21">
-        <v>0.002313264000940785</v>
+        <v>0.03572706485364594</v>
       </c>
       <c r="J21">
-        <v>0.002313264000940785</v>
+        <v>0.03572706485364593</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.06359067613687</v>
+        <v>1.122709333333333</v>
       </c>
       <c r="N21">
-        <v>1.06359067613687</v>
+        <v>3.368128</v>
       </c>
       <c r="O21">
-        <v>0.1100961374619291</v>
+        <v>0.105341779329557</v>
       </c>
       <c r="P21">
-        <v>0.1100961374619291</v>
+        <v>0.105341779329557</v>
       </c>
       <c r="Q21">
-        <v>0.1923447284351193</v>
+        <v>3.223580670279111</v>
       </c>
       <c r="R21">
-        <v>0.1923447284351193</v>
+        <v>29.012226032512</v>
       </c>
       <c r="S21">
-        <v>0.0002546814314333088</v>
+        <v>0.003763552581905541</v>
       </c>
       <c r="T21">
-        <v>0.0002546814314333088</v>
+        <v>0.00376355258190554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2488803333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.7466410000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.003096825313259592</v>
+      </c>
+      <c r="J22">
+        <v>0.003096825313259592</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>3.346352666666667</v>
+      </c>
+      <c r="N22">
+        <v>10.039058</v>
+      </c>
+      <c r="O22">
+        <v>0.3139821979784092</v>
+      </c>
+      <c r="P22">
+        <v>0.3139821979784092</v>
+      </c>
+      <c r="Q22">
+        <v>0.8328413671308891</v>
+      </c>
+      <c r="R22">
+        <v>7.495572304178002</v>
+      </c>
+      <c r="S22">
+        <v>0.0009723480186124222</v>
+      </c>
+      <c r="T22">
+        <v>0.0009723480186124222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2488803333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.7466410000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.003096825313259592</v>
+      </c>
+      <c r="J23">
+        <v>0.003096825313259592</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.307455999999999</v>
+      </c>
+      <c r="N23">
+        <v>12.922368</v>
+      </c>
+      <c r="O23">
+        <v>0.4041607795996257</v>
+      </c>
+      <c r="P23">
+        <v>0.4041607795996257</v>
+      </c>
+      <c r="Q23">
+        <v>1.072041085098667</v>
+      </c>
+      <c r="R23">
+        <v>9.648369765888001</v>
+      </c>
+      <c r="S23">
+        <v>0.001251615332890852</v>
+      </c>
+      <c r="T23">
+        <v>0.001251615332890852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2488803333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.7466410000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.003096825313259592</v>
+      </c>
+      <c r="J24">
+        <v>0.003096825313259592</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.05776</v>
+      </c>
+      <c r="N24">
+        <v>3.17328</v>
+      </c>
+      <c r="O24">
+        <v>0.09924770124855603</v>
+      </c>
+      <c r="P24">
+        <v>0.09924770124855603</v>
+      </c>
+      <c r="Q24">
+        <v>0.2632556613866667</v>
+      </c>
+      <c r="R24">
+        <v>2.369300952480001</v>
+      </c>
+      <c r="S24">
+        <v>0.0003073527935093539</v>
+      </c>
+      <c r="T24">
+        <v>0.0003073527935093539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2488803333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.7466410000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.003096825313259592</v>
+      </c>
+      <c r="J25">
+        <v>0.003096825313259592</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.8235003333333334</v>
+      </c>
+      <c r="N25">
+        <v>2.470501</v>
+      </c>
+      <c r="O25">
+        <v>0.07726754184385208</v>
+      </c>
+      <c r="P25">
+        <v>0.07726754184385208</v>
+      </c>
+      <c r="Q25">
+        <v>0.2049530374601111</v>
+      </c>
+      <c r="R25">
+        <v>1.844577337141</v>
+      </c>
+      <c r="S25">
+        <v>0.0002392840794753858</v>
+      </c>
+      <c r="T25">
+        <v>0.0002392840794753858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2488803333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.7466410000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.003096825313259592</v>
+      </c>
+      <c r="J26">
+        <v>0.003096825313259592</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.122709333333333</v>
+      </c>
+      <c r="N26">
+        <v>3.368128</v>
+      </c>
+      <c r="O26">
+        <v>0.105341779329557</v>
+      </c>
+      <c r="P26">
+        <v>0.105341779329557</v>
+      </c>
+      <c r="Q26">
+        <v>0.2794202731164445</v>
+      </c>
+      <c r="R26">
+        <v>2.514782458048</v>
+      </c>
+      <c r="S26">
+        <v>0.000326225088771578</v>
+      </c>
+      <c r="T26">
+        <v>0.000326225088771578</v>
       </c>
     </row>
   </sheetData>
